--- a/data/gift.xlsx
+++ b/data/gift.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB806C7-C7BA-40BF-B486-E3F84E483F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD8BE8-CE79-4C5B-88E6-8A9133C2CF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7360" xr2:uid="{8D375854-1756-4D75-8C9E-B6E6964978E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8D375854-1756-4D75-8C9E-B6E6964978E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>

--- a/data/gift.xlsx
+++ b/data/gift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD8BE8-CE79-4C5B-88E6-8A9133C2CF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861C3E07-642C-46C1-9C12-B42D6CDD25B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8D375854-1756-4D75-8C9E-B6E6964978E7}"/>
+    <workbookView xWindow="3300" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{8D375854-1756-4D75-8C9E-B6E6964978E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>8</v>
+        <v>2220</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>9</v>
+        <v>22221</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
